--- a/biology/Médecine/Pie-mère/Pie-mère.xlsx
+++ b/biology/Médecine/Pie-mère/Pie-mère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pie-m%C3%A8re</t>
+          <t>Pie-mère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pie-mère (du latin, pia mater, « tendre matrice », emprunt par calque à l'arabe umm al-dimàgh أم الدماغ [1]) est une fine lame de tissu conjonctif  vascularisé qui tapisse la surface externe du système nerveux central. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pie-mère (du latin, pia mater, « tendre matrice », emprunt par calque à l'arabe umm al-dimàgh أم الدماغ ) est une fine lame de tissu conjonctif  vascularisé qui tapisse la surface externe du système nerveux central. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pie-m%C3%A8re</t>
+          <t>Pie-mère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description, localisation et fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D’aspect fragile et transparent, la pie-mère est située sous la dure-mère et l’arachnoïde. Contrairement aux feuillets plus externes (arachnoïde et dure-mère) qui suivent l’endocrâne, la pie-mère dans sa partie cranienne épouse étroitement le relief du parenchyme en suivant les sillons, scissures et circonvolutions du cortex cérébral, ce qui fait que sa surface est beaucoup plus importante que celles des autres méninges qui sont tendues au-dessus des renfoncements du tissu nerveux. Les espaces ainsi formés entre la pie-mère et l’arachnoïde sont appelés espaces sous-arachnoïdiens ; certains sont plus largement dilatés en ce qu’on appelle des citernes sous-arachnoïdiennes, elles sont situées à la base du crâne principalement autour du tronc cérébral. Les espaces sous-arachnoïdiens sont remplis de liquide cérébrospinal anciennement appelé liquide céphalo-rachidien (LCR) et traversés par des trabéculations ou travées arachnoïdiennes qui attachent la pie-mère à la face interne de la membrane arachnoïde. 
 Elle joue plusieurs rôles, dont :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pie-m%C3%A8re</t>
+          <t>Pie-mère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine embryonnaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La pie-mère est un tissu qui a pour origine la crête neurale, un dérivé du neurectoblaste.
 Elle est constituée de deux couches distinctes :
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pie-m%C3%A8re</t>
+          <t>Pie-mère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Une coupe des différents méninges.
